--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/my-life-game/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655357BB-8A74-FC4A-BBD9-421C38D3ED16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADFE070-9D56-EC4F-A07F-3947E1320A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="&gt;specialthanks&lt;arr&gt;" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>group</t>
   </si>
@@ -45,6 +45,60 @@
   </si>
   <si>
     <t>画画鬼图这条路，我叫牛土你记住</t>
+  </si>
+  <si>
+    <t>老猞猁你咋死了</t>
+  </si>
+  <si>
+    <t>边狱巴士超牛逼</t>
+  </si>
+  <si>
+    <t>槿藤梦萝</t>
+  </si>
+  <si>
+    <t>我要玩一辈子月亮计划</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>我说剑刃解放好牌多用</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>呆呆兽使用了哈欠</t>
+  </si>
+  <si>
+    <t>福士德</t>
+  </si>
+  <si>
+    <t>已知态</t>
+  </si>
+  <si>
+    <t>夏刻</t>
+  </si>
+  <si>
+    <t>钟离</t>
+  </si>
+  <si>
+    <t>祝大家成功觉醒ego</t>
+  </si>
+  <si>
+    <t>都是你的错，以实玛团</t>
+  </si>
+  <si>
+    <t>白岚</t>
+  </si>
+  <si>
+    <t>我也要留言吗</t>
+  </si>
+  <si>
+    <t>我直接整个  谨遵指令之意</t>
+  </si>
+  <si>
+    <t>加强百战水</t>
   </si>
 </sst>
 </file>
@@ -394,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D677"/>
+  <dimension ref="A1:D675"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -446,65 +500,157 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="21" spans="2:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" s="3"/>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C112" s="2"/>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C122" s="3"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="3"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162"/>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C191" s="3"/>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C217" s="2"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" s="3"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" s="2"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C120" s="3"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B160"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C189" s="3"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C215" s="2"/>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B235" s="3"/>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B236" s="3"/>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B238" s="3"/>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B239" s="3"/>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B241" s="3"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B243" s="3"/>
@@ -532,13 +678,13 @@
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B252" s="3"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B253" s="3"/>
-      <c r="C253" s="3"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B254" s="3"/>
@@ -557,29 +703,29 @@
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B260" s="3"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B261" s="3"/>
-      <c r="C261" s="3"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B263" s="3"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B265" s="3"/>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B266" s="3"/>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B267" s="3"/>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B268" s="3"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B269" s="3"/>
@@ -587,12 +733,12 @@
     <row r="270" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B271" s="3"/>
-    </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B272" s="3"/>
     </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B273" s="3"/>
+    </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B274" s="3"/>
     </row>
@@ -602,12 +748,12 @@
     <row r="276" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B276" s="3"/>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B277" s="3"/>
-    </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B278" s="3"/>
     </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B279" s="3"/>
+    </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B280" s="3"/>
     </row>
@@ -622,13 +768,13 @@
     </row>
     <row r="284" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
     </row>
     <row r="285" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B285" s="3"/>
     </row>
     <row r="286" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
     </row>
     <row r="287" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B287" s="3"/>
@@ -671,13 +817,13 @@
     </row>
     <row r="300" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
     </row>
     <row r="301" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B301" s="3"/>
     </row>
     <row r="302" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B302" s="3"/>
-      <c r="C302" s="3"/>
     </row>
     <row r="303" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B303" s="3"/>
@@ -795,13 +941,13 @@
     </row>
     <row r="341" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
     </row>
     <row r="342" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B342" s="3"/>
     </row>
     <row r="343" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B343" s="3"/>
-      <c r="C343" s="3"/>
     </row>
     <row r="344" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B344" s="3"/>
@@ -856,23 +1002,23 @@
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B362" s="3"/>
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B363" s="3"/>
-      <c r="C363" s="3"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B364" s="3"/>
+      <c r="D364" s="3"/>
     </row>
     <row r="365" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B365" s="3"/>
     </row>
     <row r="366" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B366" s="3"/>
-      <c r="D366" s="3"/>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B367" s="3"/>
@@ -918,43 +1064,43 @@
     </row>
     <row r="381" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
     </row>
     <row r="382" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B382" s="3"/>
     </row>
     <row r="383" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B383" s="3"/>
-      <c r="C383" s="3"/>
     </row>
     <row r="384" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B384" s="3"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B386" s="3"/>
     </row>
-    <row r="387" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B387" s="3"/>
-      <c r="C387" s="3"/>
+    <row r="387" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B387" s="4"/>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B388" s="3"/>
     </row>
-    <row r="389" spans="2:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B389" s="4"/>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B389" s="3"/>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="3"/>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B391" s="3"/>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
-      <c r="D392" s="3"/>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B393" s="3"/>
@@ -970,44 +1116,44 @@
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B397" s="3"/>
-    </row>
-    <row r="398" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B398" s="3"/>
-    </row>
-    <row r="399" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B399" s="3"/>
-      <c r="C399" s="3"/>
-      <c r="D399" s="3"/>
-    </row>
-    <row r="412" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C412" s="3"/>
-    </row>
-    <row r="420" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C420" s="3"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="3"/>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C410" s="3"/>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C418" s="3"/>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B422" s="3"/>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C423" s="3"/>
+      <c r="B423" s="3"/>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B424" s="3"/>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="3"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B427" s="3"/>
       <c r="C427" s="3"/>
     </row>
-    <row r="428" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B428" s="3"/>
-      <c r="C428" s="3"/>
-      <c r="D428" s="3"/>
-    </row>
-    <row r="429" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C429" s="3"/>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B445" s="3"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B446" s="3"/>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B447" s="3"/>
@@ -1032,16 +1178,16 @@
     </row>
     <row r="454" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B454" s="3"/>
+      <c r="C454" s="3"/>
     </row>
     <row r="455" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B455" s="3"/>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B456" s="3"/>
-      <c r="C456" s="3"/>
-    </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B457" s="3"/>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B479" s="3"/>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B480" s="3"/>
     </row>
     <row r="481" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B481" s="3"/>
@@ -1051,13 +1197,13 @@
     </row>
     <row r="483" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B483" s="3"/>
+      <c r="C483" s="3"/>
     </row>
     <row r="484" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B484" s="3"/>
     </row>
     <row r="485" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B485" s="3"/>
-      <c r="C485" s="3"/>
     </row>
     <row r="486" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B486" s="3"/>
@@ -1088,17 +1234,17 @@
     </row>
     <row r="495" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B495" s="3"/>
-    </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B496" s="3"/>
-    </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B497" s="3"/>
-      <c r="C497" s="3"/>
+      <c r="C495" s="3"/>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B538" s="3"/>
+      <c r="D538" s="3"/>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B539" s="3"/>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B540" s="3"/>
-      <c r="D540" s="3"/>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B541" s="3"/>
@@ -1117,13 +1263,13 @@
     </row>
     <row r="546" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B546" s="3"/>
+      <c r="C546" s="3"/>
     </row>
     <row r="547" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B547" s="3"/>
     </row>
     <row r="548" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B548" s="3"/>
-      <c r="C548" s="3"/>
     </row>
     <row r="549" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B549" s="3"/>
@@ -1164,50 +1310,50 @@
     <row r="561" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B561" s="3"/>
     </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B562" s="3"/>
-    </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B563" s="3"/>
-    </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B582" s="3"/>
+    </row>
+    <row r="583" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B583" s="3"/>
+    </row>
+    <row r="584" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B584" s="3"/>
     </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B585" s="3"/>
     </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B586" s="3"/>
     </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B587" s="3"/>
     </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B588" s="3"/>
     </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B589" s="3"/>
     </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B590" s="3"/>
     </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B591" s="3"/>
-    </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B592" s="3"/>
-    </row>
-    <row r="594" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D594" s="3"/>
-    </row>
-    <row r="603" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D592" s="3"/>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B601" s="3"/>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B602" s="3"/>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B603" s="3"/>
     </row>
-    <row r="604" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B604" s="3"/>
-    </row>
-    <row r="605" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B605" s="3"/>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B607" s="3"/>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B608" s="3"/>
     </row>
     <row r="609" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B609" s="3"/>
@@ -1223,14 +1369,14 @@
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B613" s="3"/>
+      <c r="C613" s="3"/>
+      <c r="D613" s="3"/>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B614" s="3"/>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B615" s="3"/>
-      <c r="C615" s="3"/>
-      <c r="D615" s="3"/>
     </row>
     <row r="616" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B616" s="3"/>
@@ -1259,103 +1405,103 @@
     <row r="624" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B624" s="3"/>
     </row>
-    <row r="625" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B625" s="3"/>
     </row>
-    <row r="626" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B626" s="3"/>
     </row>
-    <row r="627" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B627" s="3"/>
     </row>
-    <row r="628" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B628" s="3"/>
     </row>
-    <row r="629" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B629" s="3"/>
     </row>
-    <row r="630" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B630" s="3"/>
-    </row>
-    <row r="631" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C630" s="3"/>
+    </row>
+    <row r="631" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B631" s="3"/>
     </row>
-    <row r="632" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B632" s="3"/>
-      <c r="C632" s="3"/>
-    </row>
-    <row r="633" spans="2:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="633" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B633" s="3"/>
     </row>
-    <row r="634" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B634" s="3"/>
     </row>
-    <row r="635" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B635" s="3"/>
     </row>
-    <row r="636" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B636" s="3"/>
     </row>
-    <row r="637" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B637" s="3"/>
     </row>
-    <row r="638" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B638" s="3"/>
     </row>
-    <row r="639" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B639" s="3"/>
-    </row>
-    <row r="640" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D639" s="3"/>
+    </row>
+    <row r="640" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B640" s="3"/>
     </row>
-    <row r="641" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B641" s="3"/>
-      <c r="D641" s="3"/>
-    </row>
-    <row r="642" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="642" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B642" s="3"/>
     </row>
-    <row r="643" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B643" s="3"/>
-    </row>
-    <row r="644" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C643" s="3"/>
+    </row>
+    <row r="644" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B644" s="3"/>
     </row>
-    <row r="645" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B645" s="3"/>
-      <c r="C645" s="3"/>
-    </row>
-    <row r="646" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="646" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B646" s="3"/>
     </row>
-    <row r="647" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="647" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B647" s="3"/>
     </row>
-    <row r="648" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B648" s="3"/>
     </row>
-    <row r="649" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B649" s="3"/>
     </row>
-    <row r="650" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B650" s="3"/>
     </row>
-    <row r="651" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B651" s="3"/>
     </row>
-    <row r="652" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="652" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B652" s="3"/>
     </row>
-    <row r="653" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B653" s="3"/>
     </row>
-    <row r="654" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B654" s="3"/>
     </row>
-    <row r="655" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B655" s="3"/>
     </row>
-    <row r="656" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B656" s="3"/>
     </row>
     <row r="657" spans="2:2" x14ac:dyDescent="0.2">
@@ -1414,12 +1560,6 @@
     </row>
     <row r="675" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B675" s="3"/>
-    </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B676" s="3"/>
-    </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B677" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADFE070-9D56-EC4F-A07F-3947E1320A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0CB46E-8A30-C24D-B5B6-C4C5E05AB9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>group</t>
   </si>
@@ -38,9 +38,6 @@
     <t>睿智的呆桶</t>
   </si>
   <si>
-    <t>这里是呆桶nia，永远love ya all nia</t>
-  </si>
-  <si>
     <t>海海海海生</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>夏刻</t>
   </si>
   <si>
-    <t>钟离</t>
-  </si>
-  <si>
     <t>祝大家成功觉醒ego</t>
   </si>
   <si>
@@ -99,6 +93,15 @@
   </si>
   <si>
     <t>加强百战水</t>
+  </si>
+  <si>
+    <t>终焉睡神</t>
+  </si>
+  <si>
+    <t>幻.舞是最强的</t>
+  </si>
+  <si>
+    <t>永远love ya all nia</t>
   </si>
 </sst>
 </file>
@@ -450,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D675"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -476,15 +479,26 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -492,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -503,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -514,21 +528,21 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -539,7 +553,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -547,10 +561,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -558,18 +572,18 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -580,7 +594,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -588,20 +602,12 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="19" spans="2:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0CB46E-8A30-C24D-B5B6-C4C5E05AB9B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351193A-870B-414B-B0FC-0B63D11BA0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48520172-47B7-8946-B492-4E042B46E3FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850E2796-ACEE-A349-A593-AEF63AD1F854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/specialthanks-afd.xlsx
+++ b/data/specialthanks-afd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayuankevinguo/Desktop/life-final/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850E2796-ACEE-A349-A593-AEF63AD1F854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7116D247-9B9C-C449-9207-C07CE9020B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D675"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
